--- a/Actigraphy Data.xlsx
+++ b/Actigraphy Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19720" windowHeight="15620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="15620"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -351,33 +351,6 @@
     <t>went to alberta</t>
   </si>
   <si>
-    <t>Lot 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yellow </t>
-  </si>
-  <si>
-    <t>Bediol</t>
-  </si>
-  <si>
-    <t>Argyle</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Red Sativa</t>
-  </si>
-  <si>
-    <t>Red Indica</t>
-  </si>
-  <si>
-    <t>Bedica</t>
-  </si>
-  <si>
-    <t>Bakerstreet</t>
-  </si>
-  <si>
     <t>strain_3</t>
   </si>
   <si>
@@ -496,6 +469,42 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Lot 3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Yellow </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Indica</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Argyle</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bediol</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bakerstreet</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bedica</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Red Sativa</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -993,7 +1002,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,9 +1012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BS210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -1052,7 +1061,7 @@
         <v>50</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>38</v>
@@ -1097,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="X1" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="Y1" s="5" t="s">
         <v>40</v>
@@ -1142,7 +1151,7 @@
         <v>23</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="AN1" s="5" t="s">
         <v>43</v>
@@ -1188,53 +1197,53 @@
       </c>
       <c r="BB1" s="5"/>
       <c r="BC1" s="8" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="BD1" s="12" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="BE1" s="12"/>
       <c r="BF1" s="6" t="s">
         <v>36</v>
       </c>
       <c r="BG1" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="BH1" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="BI1" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="BK1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="BL1" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="BM1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="BN1" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="BO1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="BQ1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="BH1" s="18" t="s">
+      <c r="BR1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="BI1" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="BJ1" s="25" t="s">
+      <c r="BS1" s="25" t="s">
         <v>90</v>
-      </c>
-      <c r="BK1" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="BL1" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="BM1" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN1" s="25" t="s">
-        <v>94</v>
-      </c>
-      <c r="BO1" s="25" t="s">
-        <v>95</v>
-      </c>
-      <c r="BP1" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="BQ1" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="BR1" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="BS1" s="25" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:71" s="4" customFormat="1">
@@ -1745,10 +1754,10 @@
         <v>473.28</v>
       </c>
       <c r="BR4" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS4" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:71" s="4" customFormat="1">
@@ -1803,22 +1812,22 @@
         <v>351.25</v>
       </c>
       <c r="BN5" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BO5" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP5" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ5" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR5" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS5" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:71" s="4" customFormat="1">
@@ -2300,22 +2309,22 @@
         <v>391</v>
       </c>
       <c r="BN8" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BO8" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP8" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ8" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR8" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS8" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:71" s="4" customFormat="1">
@@ -2736,10 +2745,10 @@
         <v>393.5</v>
       </c>
       <c r="BR11" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS11" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:71" s="4" customFormat="1">
@@ -2899,10 +2908,10 @@
         <v>523.53</v>
       </c>
       <c r="BR12" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS12" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:71" s="4" customFormat="1">
@@ -3062,10 +3071,10 @@
         <v>95</v>
       </c>
       <c r="BR13" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS13" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:71" s="4" customFormat="1">
@@ -3275,7 +3284,7 @@
         <v>504.28</v>
       </c>
       <c r="BS14" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:71" s="4" customFormat="1">
@@ -3485,7 +3494,7 @@
         <v>338</v>
       </c>
       <c r="BS15" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:71" s="4" customFormat="1">
@@ -4212,10 +4221,10 @@
         <v>499.16</v>
       </c>
       <c r="BR19" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS19" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:71" s="4" customFormat="1">
@@ -4623,7 +4632,7 @@
         <v>398.33</v>
       </c>
       <c r="BO21" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP21" s="6">
         <v>425</v>
@@ -4795,10 +4804,10 @@
         <v>458</v>
       </c>
       <c r="BR22" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS22" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:71" s="4" customFormat="1">
@@ -4996,7 +5005,7 @@
         <v>445</v>
       </c>
       <c r="BO23" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP23" s="6">
         <v>417.14</v>
@@ -5672,22 +5681,22 @@
         <v>409.2</v>
       </c>
       <c r="BN28" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BO28" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP28" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ28" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR28" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS28" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:71" s="4" customFormat="1">
@@ -6048,10 +6057,10 @@
         <v>432.71</v>
       </c>
       <c r="BR30" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS30" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:71" s="4" customFormat="1">
@@ -6737,25 +6746,25 @@
       <c r="BK34" s="6"/>
       <c r="BL34" s="6"/>
       <c r="BM34" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BN34" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BO34" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP34" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ34" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR34" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS34" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:71" s="4" customFormat="1">
@@ -6865,16 +6874,16 @@
         <v>381.42</v>
       </c>
       <c r="BP35" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ35" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR35" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS35" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:71" s="4" customFormat="1">
@@ -6978,19 +6987,19 @@
         <v>490</v>
       </c>
       <c r="BO36" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP36" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ36" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR36" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS36" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:71" s="4" customFormat="1">
@@ -7408,10 +7417,10 @@
         <v>558.57000000000005</v>
       </c>
       <c r="BR39" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS39" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:71" s="4" customFormat="1">
@@ -8032,7 +8041,7 @@
         <v>449.07</v>
       </c>
       <c r="BP42" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ42" s="6">
         <v>490.66</v>
@@ -8177,13 +8186,13 @@
         <v>414.92</v>
       </c>
       <c r="BQ43" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR43" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS43" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:71" s="4" customFormat="1">
@@ -8381,7 +8390,7 @@
         <v>471.83</v>
       </c>
       <c r="BO44" s="4" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP44" s="6">
         <v>483.33</v>
@@ -8458,7 +8467,7 @@
         <v>37</v>
       </c>
       <c r="AO45" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AP45" s="4" t="s">
         <v>37</v>
@@ -8467,10 +8476,10 @@
         <v>37</v>
       </c>
       <c r="AR45" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AS45" s="4" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="AT45" s="4" t="s">
         <v>37</v>
@@ -8817,22 +8826,22 @@
         <v>413.75</v>
       </c>
       <c r="BN47" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BO47" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BP47" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BQ47" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR47" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS47" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:71" s="4" customFormat="1">
@@ -9258,7 +9267,7 @@
         <v>320</v>
       </c>
       <c r="BS50" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:71" s="4" customFormat="1">
@@ -9636,7 +9645,7 @@
         <v>340</v>
       </c>
       <c r="BS52" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:71" s="4" customFormat="1">
@@ -9786,7 +9795,7 @@
         <v>6</v>
       </c>
       <c r="BM53" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BN53" s="6">
         <v>321.66000000000003</v>
@@ -10764,13 +10773,13 @@
         <v>452.5</v>
       </c>
       <c r="BQ58" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BR58" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BS58" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="59" spans="1:71" s="4" customFormat="1">
@@ -11199,7 +11208,7 @@
         <v>7</v>
       </c>
       <c r="BM61" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BN61" s="6">
         <v>390</v>
@@ -11388,7 +11397,7 @@
         <v>6</v>
       </c>
       <c r="BM62" s="6" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="BN62" s="6">
         <v>191.33</v>
@@ -11720,7 +11729,7 @@
         <v>55.81095890410959</v>
       </c>
       <c r="BD64" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="BE64" s="13"/>
       <c r="BF64" s="6">
@@ -11771,7 +11780,7 @@
         <v>37</v>
       </c>
       <c r="BD65" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="BE65" s="13"/>
       <c r="BH65" s="22"/>
@@ -11796,7 +11805,7 @@
       </c>
       <c r="BC66" s="11"/>
       <c r="BD66" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="BE66" s="13"/>
       <c r="BI66" s="24"/>
@@ -11814,7 +11823,7 @@
     <row r="67" spans="23:71">
       <c r="BC67" s="11"/>
       <c r="BD67" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="BE67" s="13"/>
       <c r="BI67" s="24"/>
@@ -11832,7 +11841,7 @@
     <row r="68" spans="23:71">
       <c r="BC68" s="11"/>
       <c r="BD68" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="BE68" s="13"/>
       <c r="BI68" s="24"/>
@@ -11850,14 +11859,14 @@
     <row r="69" spans="23:71">
       <c r="BC69" s="11"/>
       <c r="BD69" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="BE69" s="13"/>
     </row>
     <row r="70" spans="23:71">
       <c r="BC70" s="11"/>
       <c r="BD70" s="13" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="BE70" s="13"/>
     </row>
@@ -12573,7 +12582,7 @@
   <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -12583,16 +12592,16 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="B1">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="O1" t="s">
         <v>37</v>
@@ -12603,16 +12612,16 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>93</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
         <v>37</v>
@@ -12623,10 +12632,10 @@
     </row>
     <row r="3" spans="1:16">
       <c r="F3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
         <v>37</v>
@@ -12637,30 +12646,30 @@
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
@@ -12674,71 +12683,71 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="F7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G7" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B8">
         <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="B10">
         <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>9</v>
